--- a/docs/microct/microct-metadata.xlsx
+++ b/docs/microct/microct-metadata.xlsx
@@ -221,7 +221,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>The format in which each single imaging file will be exported. (Example: DICOM, tiff, avi, etc.)</t>
         </r>
       </text>
     </comment>
@@ -442,7 +442,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of the voltage used to acquire microCT images. Example: volt</t>
+          <t>The unit of the voltage used to acquire microCT images. Example: V</t>
         </r>
       </text>
     </comment>
@@ -468,7 +468,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of the current used to acquire microCT images. Example: amp</t>
+          <t>The unit of the current used to acquire microCT images. Example: mA</t>
         </r>
       </text>
     </comment>
@@ -520,7 +520,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The number of sections used for analyzing microCT images</t>
+          <t>The number of sections used for analyzing microCT or OCT images</t>
         </r>
       </text>
     </comment>
@@ -674,7 +674,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>kVa</t>
+    <t>kV</t>
   </si>
   <si>
     <t>current_value</t>
@@ -683,13 +683,13 @@
     <t>current_unit</t>
   </si>
   <si>
-    <t>mAmp</t>
-  </si>
-  <si>
-    <t>microAmp</t>
-  </si>
-  <si>
-    <t>Amp</t>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>microA</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>filter</t>
@@ -1252,14 +1252,14 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: V / kVa." sqref="AF2:AF1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: V / kV." sqref="AF2:AF1048576">
       <formula1>'voltage_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mAmp / microAmp / Amp." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mA / microA / A." sqref="AH2:AH1048576">
       <formula1>'current_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">

--- a/docs/microct/microct-metadata.xlsx
+++ b/docs/microct/microct-metadata.xlsx
@@ -593,7 +593,7 @@
     <t>assay_category</t>
   </si>
   <si>
-    <t>imaging</t>
+    <t>clinical_imaging</t>
   </si>
   <si>
     <t>assay_type</t>
@@ -1192,7 +1192,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: clinical_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Micro CT." sqref="L2:L1048576">
